--- a/Cone Proportions Calculations.xlsx
+++ b/Cone Proportions Calculations.xlsx
@@ -8,12 +8,36 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="phi">Sheet1!$K$3</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$P$5</definedName>
+    <definedName name="AB">Sheet1!$O$7</definedName>
+    <definedName name="AC">Sheet1!$O$6</definedName>
+    <definedName name="AD">Sheet1!$O$5</definedName>
+    <definedName name="AH">Sheet1!$O$9</definedName>
+    <definedName name="Arm_Length">Sheet1!$O$25</definedName>
+    <definedName name="Arm_Pivot_Height">Sheet1!$N$34</definedName>
+    <definedName name="Axie_Height">Sheet1!$N$33</definedName>
+    <definedName name="Base_Dia">Sheet1!$O$8</definedName>
+    <definedName name="Bearing_Height">Sheet1!$O$27</definedName>
+    <definedName name="Body_Height">Sheet1!$O$20</definedName>
+    <definedName name="Bottom_Height">Sheet1!$R$31</definedName>
+    <definedName name="CI">Sheet1!$P$14</definedName>
+    <definedName name="Cone_Angle">Sheet1!$O$40</definedName>
+    <definedName name="Cone_Height">Sheet1!$R$37</definedName>
+    <definedName name="FI">Sheet1!$M$14</definedName>
+    <definedName name="GF">Sheet1!$P$18</definedName>
+    <definedName name="GI">Sheet1!$P$17</definedName>
+    <definedName name="Ground_Height">Sheet1!$N$30</definedName>
+    <definedName name="HC">Sheet1!$M$18</definedName>
+    <definedName name="Height">Sheet1!$N$37</definedName>
+    <definedName name="HI">Sheet1!$O$12</definedName>
+    <definedName name="Inside_Hex_Angle">Sheet1!$O$10</definedName>
+    <definedName name="Lower_Shelf_Height">Sheet1!#REF!</definedName>
+    <definedName name="Middle_Shelf_Height">Sheet1!$N$35</definedName>
+    <definedName name="phi">Sheet1!$L$3</definedName>
+    <definedName name="Shelf_Bearing_Height">Sheet1!$O$26</definedName>
+    <definedName name="Shelf_Thickness">Sheet1!$O$23</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$O$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -27,7 +51,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$P$20</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -38,15 +62,20 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">250</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">500</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="Top_Dia">Sheet1!$O$11</definedName>
+    <definedName name="Top_of_Bottom_Height">Sheet1!$N$31</definedName>
+    <definedName name="Top_Shelf_Height">Sheet1!$N$36</definedName>
+    <definedName name="Wall_Thickness">Sheet1!$O$24</definedName>
+    <definedName name="Wheel_Dia">Sheet1!$O$22</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Phi</t>
   </si>
@@ -139,6 +168,99 @@
   </si>
   <si>
     <t>EF/AD</t>
+  </si>
+  <si>
+    <t>Middle Shelf</t>
+  </si>
+  <si>
+    <t>Top Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm Length: </t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Axle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf Thickness: </t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheel Diameter: </t>
+  </si>
+  <si>
+    <t>Dist. From Axle</t>
+  </si>
+  <si>
+    <t>Dist. From Bottom</t>
+  </si>
+  <si>
+    <t>Dist. From Ground</t>
+  </si>
+  <si>
+    <t>Arm Pivot</t>
+  </si>
+  <si>
+    <t>HI_Calc:</t>
+  </si>
+  <si>
+    <t>Bearing Height:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Base/Height)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Top/Height)</t>
+  </si>
+  <si>
+    <t>EF/BC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Top/Base = Phi + 1)</t>
+  </si>
+  <si>
+    <t>1/Phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Top/AD = 1/Phi)</t>
+  </si>
+  <si>
+    <t>Fore-Aft</t>
+  </si>
+  <si>
+    <t>F/A Thickness Increase/ Unit Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opposite Side of Shelf to Axle Centerline: </t>
+  </si>
+  <si>
+    <t>Width of Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wall Thickness: </t>
+  </si>
+  <si>
+    <t>Lower Shelf, Top</t>
+  </si>
+  <si>
+    <t>Bot./Lower Shelf, Bot.</t>
+  </si>
+  <si>
+    <t>Fore-Aft Width</t>
+  </si>
+  <si>
+    <t>Width at Height</t>
+  </si>
+  <si>
+    <t>Fore-Aft Shelf Width</t>
   </si>
 </sst>
 </file>
@@ -147,9 +269,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +307,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +328,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,11 +342,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,20 +373,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1509,7 +1671,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>248214</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1857,293 +2019,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:S37"/>
+  <dimension ref="K3:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="14" width="9.06640625" style="1"/>
-    <col min="15" max="15" width="11.06640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="1" customWidth="1"/>
+    <col min="1" max="13" width="9.06640625" style="1"/>
+    <col min="14" max="14" width="11.06640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.796875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="J3" s="1" t="s">
+    <row r="3" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <f>(1+SQRT(5))/2</f>
         <v>1.6180339887498949</v>
       </c>
     </row>
-    <row r="5" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O5" s="1" t="s">
+    <row r="5" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="1">
+        <f>1/phi</f>
+        <v>0.61803398874989479</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="1">
-        <v>425.32543917601959</v>
-      </c>
-    </row>
-    <row r="6" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O6" s="1" t="s">
+      <c r="O5" s="1">
+        <f>2*HI*TAN(RADIANS(54))</f>
+        <v>828.172360741337</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>500/809*500</f>
+        <v>309.02348578491967</v>
+      </c>
+    </row>
+    <row r="6" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="1">
-        <f>P5/phi</f>
-        <v>262.86557769075614</v>
-      </c>
-    </row>
-    <row r="7" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O7" s="1" t="s">
+      <c r="O6" s="1">
+        <f>O5/phi</f>
+        <v>511.8386674813853</v>
+      </c>
+    </row>
+    <row r="7" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="1">
-        <f>P5-P6</f>
-        <v>162.45986148526345</v>
-      </c>
-    </row>
-    <row r="8" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O8" s="5" t="s">
+      <c r="O7" s="1">
+        <f>O5-O6</f>
+        <v>316.3336932599517</v>
+      </c>
+    </row>
+    <row r="8" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="7">
-        <f>P6-P7</f>
-        <v>100.40571620549269</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="O8" s="6">
+        <f>O6-O7</f>
+        <v>195.5049742214336</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="1">
-        <f>P8/P20</f>
-        <v>0.40162283177245395</v>
-      </c>
-    </row>
-    <row r="9" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O9" s="2" t="s">
+      <c r="R8" s="1">
+        <f>O8/O20</f>
+        <v>0.40162283177245428</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="1">
-        <f>P5/2</f>
-        <v>212.66271958800979</v>
-      </c>
-    </row>
-    <row r="10" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O10" s="2" t="s">
+      <c r="O9" s="1">
+        <f>O5/2</f>
+        <v>414.0861803706685</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="1">
+        <f>Top_Dia/Body_Height</f>
+        <v>1.0514622242382667</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="1">
+      <c r="O10" s="1">
         <f>180-360/5</f>
         <v>108</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O11" s="5" t="s">
+    <row r="11" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="7">
-        <f>P9/SIN(RADIANS(P10/2))</f>
-        <v>262.86557769075614</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="O11" s="6">
+        <f>O9/SIN(RADIANS(O10/2))</f>
+        <v>511.8386674813853</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="8">
-        <f>P11/P5</f>
+      <c r="R11" s="7">
+        <f>O11/AD</f>
         <v>0.61803398874989479</v>
       </c>
-    </row>
-    <row r="12" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="O12" s="2" t="s">
+      <c r="S11" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="N12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="3">
-        <f>P9/TAN(RADIANS(P10/2))</f>
-        <v>154.50850990196784</v>
-      </c>
-    </row>
-    <row r="14" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="N14" s="12">
-        <f>P5</f>
-        <v>425.32543917601959</v>
-      </c>
-      <c r="O14" s="13" t="s">
+      <c r="O12" s="3">
+        <f>2*TAN(RADIANS(18))*COS(RADIANS(54))*Cone_Height/(1-2*TAN(RADIANS(18))*COS(RADIANS(54)))</f>
+        <v>300.8512202985894</v>
+      </c>
+    </row>
+    <row r="13" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="Q13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" s="1">
+        <f>Top_Dia/Base_Dia</f>
+        <v>2.6180339887498953</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="M14" s="10">
+        <f>O5</f>
+        <v>828.172360741337</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="O14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="12">
-        <f>N14*Q15/N15</f>
-        <v>162.4598614852633</v>
-      </c>
-    </row>
-    <row r="15" spans="10:19" x14ac:dyDescent="0.4">
-      <c r="N15" s="15">
-        <f>P11</f>
-        <v>262.86557769075614</v>
-      </c>
-      <c r="O15" s="15" t="s">
+      <c r="P14" s="10">
+        <f>M14*P15/M15</f>
+        <v>316.33369325995159</v>
+      </c>
+    </row>
+    <row r="15" spans="11:19" x14ac:dyDescent="0.4">
+      <c r="M15" s="13">
+        <f>O11</f>
+        <v>511.8386674813853</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="O15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="15">
-        <f>P8</f>
-        <v>100.40571620549269</v>
-      </c>
-    </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="N17" s="3">
-        <f>P12</f>
-        <v>154.50850990196784</v>
-      </c>
-      <c r="O17" s="4" t="s">
+      <c r="P15" s="13">
+        <f>O8</f>
+        <v>195.5049742214336</v>
+      </c>
+    </row>
+    <row r="17" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="M17" s="3">
+        <f>O12</f>
+        <v>300.8512202985894</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="O17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q17" s="3">
-        <f>N17*Q18/N18</f>
-        <v>404.50853047445167</v>
-      </c>
-    </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="1">
-        <f>Q18/P20</f>
-        <v>0.52573111211913304</v>
-      </c>
-      <c r="N18" s="3">
-        <f>P8/2</f>
-        <v>50.202858102746347</v>
+      <c r="P17" s="3">
+        <f>M17*P18/M18</f>
+        <v>787.63872029858942</v>
+      </c>
+      <c r="R17" s="1">
+        <f>45/200</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="S17" s="1">
+        <f>1/R17</f>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="18" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="M18" s="3">
+        <f>O8/2</f>
+        <v>97.7524871107168</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q18" s="3">
-        <f>P11/2</f>
-        <v>131.43278884537807</v>
-      </c>
-    </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="O20" s="5" t="s">
+      <c r="P18" s="3">
+        <f>O11/2</f>
+        <v>255.91933374069265</v>
+      </c>
+    </row>
+    <row r="19" spans="11:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="R19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="6">
-        <f>Q17-P12</f>
-        <v>250.00002057248383</v>
-      </c>
-    </row>
-    <row r="26" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="O26" s="2" t="s">
+      <c r="O20" s="19">
+        <f>GI-HI</f>
+        <v>486.78750000000002</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="R21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="1">
+        <f>S20*R13</f>
+        <v>117.8115294937453</v>
+      </c>
+    </row>
+    <row r="22" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="1">
+        <f>32.5*2</f>
+        <v>65</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S22" s="1">
+        <f>(S21-S20)/(Height-Top_of_Bottom_Height)</f>
+        <v>0.14957559406054036</v>
+      </c>
+    </row>
+    <row r="23" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N23" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="15">
+        <f>(Body_Height-R30)/2-5</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O26" s="3">
+        <f>Bearing_Height/2+Shelf_Thickness</f>
+        <v>19.287500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="N27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="3">
+        <v>28.574999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="11:22" ht="45" x14ac:dyDescent="0.4">
+      <c r="N29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="17"/>
+      <c r="R29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="M30" s="14"/>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <f>(N30/Body_Height)*(Top_Dia-Base_Dia)+Base_Dia</f>
+        <v>195.5049742214336</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R30" s="15">
+        <f>Ground_Height-Top_of_Bottom_Height</f>
+        <v>-13.212499999999999</v>
+      </c>
+      <c r="S30" s="15">
+        <f t="shared" ref="S30:S37" si="0">N30-Axie_Height</f>
+        <v>-32.5</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" ref="T30:T37" si="1">O30-2*Wall_Thickness</f>
+        <v>185.5049742214336</v>
+      </c>
+      <c r="U30" s="15">
+        <f>(N30-N$32)/(N$37-N$32)*(U$37-U$32)+U$32</f>
+        <v>43.058447409546922</v>
+      </c>
+      <c r="V30" s="15">
+        <f>U30-2*Wall_Thickness</f>
+        <v>33.058447409546922</v>
+      </c>
+    </row>
+    <row r="31" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="M31" s="15"/>
+      <c r="N31" s="15">
+        <f>Axie_Height-Shelf_Bearing_Height</f>
+        <v>13.212499999999999</v>
+      </c>
+      <c r="O31" s="15">
+        <f>Base_Dia</f>
+        <v>195.5049742214336</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R31" s="15">
+        <f>Top_of_Bottom_Height-Top_of_Bottom_Height</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="15">
+        <f t="shared" si="0"/>
+        <v>-19.287500000000001</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="1"/>
+        <v>185.5049742214336</v>
+      </c>
+      <c r="U31" s="15">
+        <f>U32-Shelf_Thickness*SIN(RADIANS(5))</f>
+        <v>54.564221286261706</v>
+      </c>
+      <c r="V31" s="15">
+        <f>U31-2*Wall_Thickness</f>
+        <v>44.564221286261706</v>
+      </c>
+    </row>
+    <row r="32" spans="11:22" x14ac:dyDescent="0.4">
+      <c r="K32" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="15">
+        <f>2*TAN(RADIANS(18))*COS(RADIANS(54))*R36/(1-2*TAN(RADIANS(18))*COS(RADIANS(54)))</f>
+        <v>263.76918097359572</v>
+      </c>
+      <c r="N32" s="15">
+        <f>Top_of_Bottom_Height+Shelf_Thickness</f>
+        <v>18.212499999999999</v>
+      </c>
+      <c r="O32" s="15">
+        <f t="shared" ref="O32:O37" si="2">(R32/Body_Height)*(Top_Dia-Base_Dia)+Base_Dia</f>
+        <v>198.75417118376265</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R32" s="15">
+        <f t="shared" ref="R32:R37" si="3">N32-Top_of_Bottom_Height</f>
+        <v>5</v>
+      </c>
+      <c r="S32" s="15">
+        <f t="shared" si="0"/>
+        <v>-14.287500000000001</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" si="1"/>
+        <v>188.75417118376265</v>
+      </c>
+      <c r="U32" s="16">
+        <f>V32+2*Wall_Thickness</f>
+        <v>55</v>
+      </c>
+      <c r="V32" s="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N33" s="15">
+        <f>Wheel_Dia/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="O33" s="15">
+        <f t="shared" si="2"/>
+        <v>208.03875150361796</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="15">
+        <f t="shared" si="3"/>
+        <v>19.287500000000001</v>
+      </c>
+      <c r="S33" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="1"/>
+        <v>198.03875150361796</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" ref="U33:U36" si="4">(N33-N$32)/(N$37-N$32)*(U$37-U$32)+U$32</f>
+        <v>64.368012773430252</v>
+      </c>
+      <c r="V33" s="15">
+        <f>U33-2*Wall_Thickness</f>
+        <v>54.368012773430252</v>
+      </c>
+    </row>
+    <row r="34" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N34" s="15">
+        <f>Height/2</f>
+        <v>250</v>
+      </c>
+      <c r="O34" s="15">
+        <f t="shared" si="2"/>
+        <v>349.37881936493216</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="15">
+        <f t="shared" si="3"/>
+        <v>236.78749999999999</v>
+      </c>
+      <c r="S34" s="15">
+        <f t="shared" si="0"/>
+        <v>217.5</v>
+      </c>
+      <c r="T34" s="15">
+        <f t="shared" si="1"/>
+        <v>339.37881936493216</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="4"/>
+        <v>206.97818097788019</v>
+      </c>
+      <c r="V34" s="15">
+        <f>U34-2*Wall_Thickness</f>
+        <v>196.97818097788019</v>
+      </c>
+    </row>
+    <row r="35" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N35" s="15">
+        <f>Arm_Pivot_Height+Shelf_Bearing_Height</f>
+        <v>269.28750000000002</v>
+      </c>
+      <c r="O35" s="15">
+        <f t="shared" si="2"/>
+        <v>361.91259664711652</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="15">
+        <f t="shared" si="3"/>
+        <v>256.07500000000005</v>
+      </c>
+      <c r="S35" s="15">
+        <f t="shared" si="0"/>
+        <v>236.78750000000002</v>
+      </c>
+      <c r="T35" s="15">
+        <f t="shared" si="1"/>
+        <v>351.91259664711652</v>
+      </c>
+      <c r="U35" s="16">
+        <f t="shared" si="4"/>
+        <v>219.62458842267714</v>
+      </c>
+      <c r="V35" s="16">
+        <f>U35-2*Wall_Thickness</f>
+        <v>209.62458842267714</v>
+      </c>
+    </row>
+    <row r="36" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N36" s="15">
+        <f>Height-60</f>
+        <v>440</v>
+      </c>
+      <c r="O36" s="15">
+        <f t="shared" si="2"/>
+        <v>472.84830393343657</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="15">
+        <f t="shared" si="3"/>
+        <v>426.78750000000002</v>
+      </c>
+      <c r="S36" s="15">
+        <f t="shared" si="0"/>
+        <v>407.5</v>
+      </c>
+      <c r="T36" s="15">
+        <f t="shared" si="1"/>
+        <v>462.84830393343657</v>
+      </c>
+      <c r="U36" s="15">
+        <f t="shared" si="4"/>
+        <v>331.55717848981351</v>
+      </c>
+      <c r="V36" s="15">
+        <f>U36-2*Wall_Thickness</f>
+        <v>321.55717848981351</v>
+      </c>
+    </row>
+    <row r="37" spans="12:22" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="M37" s="1">
+        <f>Cone_Height+Top_of_Bottom_Height</f>
+        <v>500</v>
+      </c>
+      <c r="N37" s="20">
+        <v>500</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="2"/>
+        <v>511.8386674813853</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R37" s="15">
+        <f t="shared" si="3"/>
+        <v>486.78750000000002</v>
+      </c>
+      <c r="S37" s="15">
+        <f t="shared" si="0"/>
+        <v>467.5</v>
+      </c>
+      <c r="T37" s="15">
+        <f t="shared" si="1"/>
+        <v>501.8386674813853</v>
+      </c>
+      <c r="U37" s="16">
+        <f>U31+2*(N37-N31)*TAN(RADIANS(18))</f>
+        <v>370.89791454621349</v>
+      </c>
+      <c r="V37" s="16">
+        <f>U37-2*Wall_Thickness</f>
+        <v>360.89791454621349</v>
+      </c>
+    </row>
+    <row r="39" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P26" s="9" t="s">
+      <c r="O39" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="P27" s="3">
-        <f>DEGREES(ACOS(Q17/N14))</f>
-        <v>17.999999999999886</v>
-      </c>
-      <c r="Q27" s="1" t="s">
+    <row r="40" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="O40" s="3">
+        <f>DEGREES(ACOS(P17/M14))</f>
+        <v>17.99999999999995</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="32" spans="11:19" x14ac:dyDescent="0.4">
-      <c r="P32" s="1" t="s">
+    <row r="42" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="O42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="13:16" x14ac:dyDescent="0.4">
-      <c r="M33" s="1" t="s">
+    <row r="43" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="L43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P33" s="1">
+      <c r="O43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="13:16" x14ac:dyDescent="0.4">
-      <c r="M35" s="1" t="s">
+    <row r="45" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="L45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P35" s="8">
-        <f>P33*(P11/P20)</f>
-        <v>1.0514622242382661</v>
-      </c>
-    </row>
-    <row r="36" spans="13:16" x14ac:dyDescent="0.4">
-      <c r="O36" s="2" t="s">
+      <c r="O45" s="7">
+        <f>O43*(O11/O20)</f>
+        <v>1.0514622242382667</v>
+      </c>
+    </row>
+    <row r="46" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P36" s="8">
-        <f>P33*(P8/P20)</f>
-        <v>0.40162283177245395</v>
-      </c>
-    </row>
-    <row r="37" spans="13:16" x14ac:dyDescent="0.4">
-      <c r="O37" s="1" t="s">
+      <c r="O46" s="7">
+        <f>O43*(O8/O20)</f>
+        <v>0.40162283177245428</v>
+      </c>
+    </row>
+    <row r="47" spans="12:22" x14ac:dyDescent="0.4">
+      <c r="N47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="1">
-        <f>P5*(P33/P20)</f>
-        <v>1.7013016167040784</v>
+      <c r="O47" s="1">
+        <f>O5*(O43/O20)</f>
+        <v>1.7013016167040791</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>